--- a/src/public/sites.xlsx
+++ b/src/public/sites.xlsx
@@ -20,12 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send</t>
+  </si>
   <si>
     <t xml:space="preserve">https://automatedconversions.com/</t>
   </si>
   <si>
+    <t xml:space="preserve">true</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.workmatix.com/digital-marketing-consulting-services/paid-search-management/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">falsy</t>
   </si>
 </sst>
 </file>
@@ -122,13 +134,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.07"/>
   </cols>
@@ -137,10 +149,24 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/public/sites.xlsx
+++ b/src/public/sites.xlsx
@@ -13,19 +13,19 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">sites</t>
   </si>
   <si>
-    <t xml:space="preserve">send</t>
+    <t xml:space="preserve">status</t>
   </si>
   <si>
     <t xml:space="preserve">https://automatedconversions.com/</t>
@@ -38,6 +38,21 @@
   </si>
   <si>
     <t xml:space="preserve">falsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://seooptimizers.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blaaaaaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.seobyjustin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ppcadeditor.com/</t>
   </si>
 </sst>
 </file>
@@ -49,8 +64,9 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -112,8 +128,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,48 +154,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" display="https://www.seobyjustin.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>